--- a/outputs/d__Bacteria_0.5.xlsx
+++ b/outputs/d__Bacteria_0.5.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1E6B1-FC18-A243-B3A4-11AAD36FA6D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F97831-B275-7E41-8188-BD7EC92D00B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{F686E16E-B231-BA44-8834-3E9F45890968}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{F686E16E-B231-BA44-8834-3E9F45890968}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="d__Bacteria_0.5_pred-t-p" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3178,7 +3178,7 @@
   <dimension ref="A1:T884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/outputs/d__Bacteria_0.5.xlsx
+++ b/outputs/d__Bacteria_0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F97831-B275-7E41-8188-BD7EC92D00B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE74823-DB15-3744-A132-C3F3232B6E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{F686E16E-B231-BA44-8834-3E9F45890968}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{F686E16E-B231-BA44-8834-3E9F45890968}"/>
   </bookViews>
   <sheets>
     <sheet name="d__Bacteria_0.5_pred-t-p" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="923">
   <si>
     <t>Row</t>
   </si>
@@ -2800,6 +2800,9 @@
   </si>
   <si>
     <t>hRUG913.fasta</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
   </si>
 </sst>
 </file>
@@ -3178,7 +3181,7 @@
   <dimension ref="A1:T884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3239,7 +3242,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>922</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
